--- a/Kurt Muller's Tasks.xlsx
+++ b/Kurt Muller's Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -63,6 +63,9 @@
     <t>2023-11-03 08:00</t>
   </si>
   <si>
+    <t>2023-11-23 14:47</t>
+  </si>
+  <si>
     <t>task1</t>
   </si>
   <si>
@@ -81,6 +84,21 @@
     <t>work</t>
   </si>
   <si>
+    <t>kurt</t>
+  </si>
+  <si>
+    <t>task2</t>
+  </si>
+  <si>
+    <t>task1complete</t>
+  </si>
+  <si>
+    <t>task2complete</t>
+  </si>
+  <si>
+    <t>task3complete</t>
+  </si>
+  <si>
     <t>desc1</t>
   </si>
   <si>
@@ -99,6 +117,18 @@
     <t>work at fs1</t>
   </si>
   <si>
+    <t>desc2</t>
+  </si>
+  <si>
+    <t>desc1complete</t>
+  </si>
+  <si>
+    <t>desc2complete</t>
+  </si>
+  <si>
+    <t>desc3compelete</t>
+  </si>
+  <si>
     <t>tag1</t>
   </si>
   <si>
@@ -111,6 +141,15 @@
     <t>2</t>
   </si>
   <si>
+    <t>tag1complete</t>
+  </si>
+  <si>
+    <t>tag2complete</t>
+  </si>
+  <si>
+    <t>tag3complete</t>
+  </si>
+  <si>
     <t>Low</t>
   </si>
   <si>
@@ -120,7 +159,7 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>2023-11-13 15:38</t>
+    <t>2023-12-10 22:26</t>
   </si>
   <si>
     <t>2023-11-16 23:22</t>
@@ -496,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -539,22 +578,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -568,16 +607,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -594,22 +633,22 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -623,19 +662,19 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -649,13 +688,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -675,19 +714,19 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -701,22 +740,22 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -730,22 +769,22 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -756,13 +795,225 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -815,22 +1066,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -844,16 +1095,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -870,22 +1121,22 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -893,25 +1144,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -919,28 +1173,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -948,16 +1193,82 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>40</v>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1004,25 +1315,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1030,25 +1341,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1056,28 +1367,180 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
